--- a/Results and findings/TimePlot.xlsx
+++ b/Results and findings/TimePlot.xlsx
@@ -8,37 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusreen/Documents/GitHub/Thesis/Results and findings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9183E-E5C4-9E47-A4F8-84809FFA0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90DE176-0FF8-564C-8A5B-144BA2D4B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" activeTab="1" xr2:uid="{C6A9094D-5B9F-4A46-B22C-F6902A9EC0F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{C6A9094D-5B9F-4A46-B22C-F6902A9EC0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$B$1:$B$13</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$8:$B$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$C$8:$C$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$5:$B$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$C$5:$C$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$11:$B$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$11:$C$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$5:$B$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$C$5:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet3!$B$1:$B$13</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$5:$B$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$C$5:$C$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$8:$B$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$8:$C$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$11:$B$13</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$11:$C$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$C$2:$C$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="10">
   <si>
     <t>Graph</t>
   </si>
@@ -159,6 +151,1866 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph: CAMIH</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-214A-1D48-9AA6-EEB96FAED920}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-214A-1D48-9AA6-EEB96FAED920}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-214A-1D48-9AA6-EEB96FAED920}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bandage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPALigner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GraphAligner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2304229376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2934415360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3340419072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-214A-1D48-9AA6-EEB96FAED920}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="599100208"/>
+        <c:axId val="599077776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="599100208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599077776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599077776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599100208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CAMIM2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8600-0245-8824-F08A31D3DC46}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8600-0245-8824-F08A31D3DC46}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8600-0245-8824-F08A31D3DC46}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$11:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bandage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPALigner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GraphAligner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$11:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>739.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8600-0245-8824-F08A31D3DC46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="544426848"/>
+        <c:axId val="544429120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="544426848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544429120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544429120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544426848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph: Real</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-86DE-514C-AA4E-5D4DB9DEAFE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-86DE-514C-AA4E-5D4DB9DEAFE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-86DE-514C-AA4E-5D4DB9DEAFE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bandage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPALigner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GraphAligner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2218000384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3685453824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3815079936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86DE-514C-AA4E-5D4DB9DEAFE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="599155376"/>
+        <c:axId val="599157536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="599155376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599157536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599157536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599155376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph: 111</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1826-DB4E-8CC8-14A2BA97ADE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1826-DB4E-8CC8-14A2BA97ADE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1826-DB4E-8CC8-14A2BA97ADE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$8:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bandage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPALigner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GraphAligner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14532608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172589056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120098816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1826-DB4E-8CC8-14A2BA97ADE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="544650704"/>
+        <c:axId val="544551600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="544650704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544551600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544551600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544650704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph: CAMIM2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-75BC-C842-9F50-3B3B8AED8F37}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-75BC-C842-9F50-3B3B8AED8F37}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-75BC-C842-9F50-3B3B8AED8F37}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$11:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bandage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPALigner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GraphAligner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$11:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1957625856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2288353280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2709143552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75BC-C842-9F50-3B3B8AED8F37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="599211984"/>
+        <c:axId val="599214144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="599211984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599214144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599214144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599211984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -267,13 +2119,26 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>379.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3449.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>952.83</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -281,7 +2146,19 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Bandage</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>SPALigner</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>GraphAligner</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -346,6 +2223,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -410,6 +2288,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -496,7 +2375,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -774,15 +2653,1215 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph: CAMIH</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2129-5E4A-BA8D-5A0D10F8E285}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2129-5E4A-BA8D-5A0D10F8E285}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bandage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPALigner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GraphAligner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>93.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1139.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303.22000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2129-5E4A-BA8D-5A0D10F8E285}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="598818672"/>
+        <c:axId val="598813168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598818672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598813168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598813168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598818672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph: Real</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-17DC-4148-AE95-D6C47677FAD6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-17DC-4148-AE95-D6C47677FAD6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bandage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPALigner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GraphAligner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>379.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3449.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>952.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17DC-4148-AE95-D6C47677FAD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1318973759"/>
+        <c:axId val="1318327055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1318973759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318327055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1318327055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318973759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph: 1_1_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F7FC-FE44-8E52-E342A8AA8EE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F7FC-FE44-8E52-E342A8AA8EE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$8:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bandage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPALigner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GraphAligner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7FC-FE44-8E52-E342A8AA8EE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="598906016"/>
+        <c:axId val="598907744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598906016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598907744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598907744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598906016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -872,10 +3951,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -965,10 +4044,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1030,7 +4109,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1065,14 +4144,279 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1117,12 +4461,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
-  <a:schemeClr val="accent2"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1162,7 +4500,65 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1203,6 +4599,2521 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1718,6 +7629,1515 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2232,7 +9652,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2747,7 +10167,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3262,7 +10682,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3777,7 +11197,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4293,6 +11713,155 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20470725-6EFE-FB33-97E3-B32476F7FC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09DEBB8-8ACE-B1FF-4B8D-42429A9E2C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A97ED4E-45A2-E596-4E95-566C390D95DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ABCA23-B25B-6E83-DDD0-B8DBB50FDD3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4603,7 +12172,156 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD593D6-A4B2-79C8-5BBC-2BFD28FE5456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7A2710-A27A-3402-0EEA-C9D91E041527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34520374-635E-B26E-16F7-21B9D0F73A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2598ED-2F9B-9F07-9552-EBCC7B89BBC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4986,7 +12704,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="D1" sqref="D1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5179,11 +12897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C35A37-CB95-5C4C-B538-FD43BD4D7E84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD8FFC5-CA75-9342-BB7B-1CDB02648C0C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5196,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5207,7 +12925,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>93.94</v>
+        <v>2304229376</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5218,7 +12936,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>1139.98</v>
+        <v>2934415360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5229,7 +12947,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>303.22000000000003</v>
+        <v>3340419072</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5240,7 +12958,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>379.45</v>
+        <v>2218000384</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5251,7 +12969,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>3449.43</v>
+        <v>3685453824</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5262,7 +12980,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>952.83</v>
+        <v>3815079936</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5273,7 +12991,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>14532608</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5284,7 +13002,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>3.72</v>
+        <v>172589056</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5295,7 +13013,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>4.49</v>
+        <v>120098816</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5306,7 +13024,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>44.33</v>
+        <v>1957625856</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5317,7 +13035,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>739.39</v>
+        <v>2288353280</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5328,7 +13046,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2">
-        <v>213.53</v>
+        <v>2709143552</v>
       </c>
     </row>
   </sheetData>
@@ -5338,10 +13056,340 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D2E5DE-67F2-4E41-9CA8-6771BF552E70}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C35A37-CB95-5C4C-B538-FD43BD4D7E84}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>93.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1139.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>303.22000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>379.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3449.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>952.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>739.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>213.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F5650-B031-B349-8E45-216ECAF819B7}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>93.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1139.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>303.22000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>379.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3449.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>952.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>739.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>213.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573305EE-7647-6445-BE1E-C1721979F30F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
